--- a/medicine/Enfance/Smoky_(roman)/Smoky_(roman).xlsx
+++ b/medicine/Enfance/Smoky_(roman)/Smoky_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smoky (Smoky the Cowhorse) est un roman jeunesse de Will James, publié en 1926, en langue anglaise. Couronné en 1927 par un prix littéraire, il est devenu très vite un classique de la littérature équine américaine[1]. Dès 1928 il est édité en version illustrée, mais il faut attendre 2013 pour que l'ouvrage soit enfin traduit et adapté en français par Guy de Galard et Luisina Dessagne, sous le titre Smoky[1],[2]. Il a inspiré plusieurs films et un documentaire.
+Smoky (Smoky the Cowhorse) est un roman jeunesse de Will James, publié en 1926, en langue anglaise. Couronné en 1927 par un prix littéraire, il est devenu très vite un classique de la littérature équine américaine. Dès 1928 il est édité en version illustrée, mais il faut attendre 2013 pour que l'ouvrage soit enfin traduit et adapté en français par Guy de Galard et Luisina Dessagne, sous le titre Smoky,. Il a inspiré plusieurs films et un documentaire.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de son expérience personnelle de la vie dans les ranchs, l'auteur a été probablement inspiré par le succès du roman d'Anna Sewell, Black Beauty, paru en 1877[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de son expérience personnelle de la vie dans les ranchs, l'auteur a été probablement inspiré par le succès du roman d'Anna Sewell, Black Beauty, paru en 1877.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman raconte les détails de la vie d'un cheval dans l'ouest des États-Unis après les années 1910. Né en pleine nature, il est capturé et dressé par un cow-boy prénommé Clint. Intelligent et plein d'esprit, Smoky est vite reconnu comme le meilleur cheval de travail de la région. Mais un jour, plusieurs chevaux sont volés dont Smoky.
 Maltraité par le voleur, Smoky prend la fuite après l'avoir tué. Vivant à l'état sauvage, il est recapturé par l'homme. Son comportement violent pousse son nouveau propriétaire à l'utiliser comme cheval de rodéo pendant plusieurs années. Ses différentes épreuves et un nouveau propriétaire qui l’affame finissent par briser l'animal qui n'est plus que l'ombre de lui-même.
@@ -576,9 +592,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1927, Will James remporte la médaille Newbery pour ce roman[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1927, Will James remporte la médaille Newbery pour ce roman.
 </t>
         </is>
       </c>
@@ -607,12 +625,14 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1933, sous le titre Smoky, le roman est adapté au cinéma par Stuart Anthony et tourné sous la direction d'Eugene Forde, avec l'acteur Victor Jory[5],[1].
-En 1946, une seconde adaptation cinématographique de Smoky est faite par la 20th Century Fox, sous la direction de Louis King et avec les acteurs Fred MacMurray et Anne Baxter[6].
-En 1966, toujours sous le titre Smoky, une troisième adaptation pour le cinéma est tournée, avec Fess Parker en vedette[6]. 
-En 1988, Jacques Godbout sort un documentaire de 83 min, Autour de Smoky : « Alias Will James »,  pour l'Office national du film du Canada où il enquête sur l'épopée de l'auteur et la genèse du livre[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1933, sous le titre Smoky, le roman est adapté au cinéma par Stuart Anthony et tourné sous la direction d'Eugene Forde, avec l'acteur Victor Jory,.
+En 1946, une seconde adaptation cinématographique de Smoky est faite par la 20th Century Fox, sous la direction de Louis King et avec les acteurs Fred MacMurray et Anne Baxter.
+En 1966, toujours sous le titre Smoky, une troisième adaptation pour le cinéma est tournée, avec Fess Parker en vedette. 
+En 1988, Jacques Godbout sort un documentaire de 83 min, Autour de Smoky : « Alias Will James »,  pour l'Office national du film du Canada où il enquête sur l'épopée de l'auteur et la genèse du livre.
 </t>
         </is>
       </c>
